--- a/SIDA/Enviar.xlsx
+++ b/SIDA/Enviar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beatriz\Documents\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beatriz\Documents\Python Scripts\SIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2142FC89-B46B-4087-8283-99B080E74AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D25A42-4A43-4DB9-9986-ACB0D0654163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{D20B1D55-E3AB-45AA-AF81-F9042BE9115A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Pessoa</t>
   </si>
@@ -46,10 +46,13 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Vini</t>
-  </si>
-  <si>
-    <t>Te amo mo</t>
+    <t>Bea</t>
+  </si>
+  <si>
+    <t>Gabs</t>
+  </si>
+  <si>
+    <t>Testando Broadcast.</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E91C31-6090-42B4-93DF-B299476852D9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,10 +433,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5511969737070</v>
+        <v>5511932301122</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5511914031825</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SIDA/Enviar.xlsx
+++ b/SIDA/Enviar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beatriz\Documents\Python Scripts\SIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D25A42-4A43-4DB9-9986-ACB0D0654163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B760F3F-45D1-4C64-981A-5E7F54CF4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{D20B1D55-E3AB-45AA-AF81-F9042BE9115A}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Pessoa</t>
   </si>
   <si>
-    <t>Número</t>
-  </si>
-  <si>
     <t>Mensagem</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Testando Broadcast.</t>
+  </si>
+  <si>
+    <t>Numero</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,32 +422,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>5511932301122</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5511914031825</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
